--- a/LeetCode分类顺序表.xlsx
+++ b/LeetCode分类顺序表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB57DFF-409D-4288-95AC-50916FB74D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C599AE2C-7A55-490E-BA80-2A7C66230F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{630A98E0-9379-4C9E-AD43-DF22226C02E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{630A98E0-9379-4C9E-AD43-DF22226C02E5}"/>
   </bookViews>
   <sheets>
     <sheet name="基础Ⅰ" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="进阶Ⅱ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4832,7 +4833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0791E2-A136-473F-A838-9FC983AA120A}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -7749,8 +7750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ED8E16-5D71-44BF-8285-0E6556EC9D83}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -8261,7 +8262,9 @@
         <v>3</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -8289,7 +8292,9 @@
         <v>3</v>
       </c>
       <c r="J22" s="8"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
@@ -8313,7 +8318,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="8"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
@@ -8357,7 +8362,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
@@ -8383,7 +8388,7 @@
       <c r="J26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
@@ -8409,7 +8414,7 @@
       <c r="J27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
@@ -8435,7 +8440,7 @@
       <c r="J28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G29" s="8">
@@ -8450,7 +8455,7 @@
       <c r="J29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8464,6 +8469,38 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E3:E19">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K5">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K16">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8479,7 +8516,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K5">
+  <conditionalFormatting sqref="E23:E28">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8495,7 +8532,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K16">
+  <conditionalFormatting sqref="K21:K23">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -8511,7 +8548,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E28">
+  <conditionalFormatting sqref="K25:K29">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>

--- a/LeetCode分类顺序表.xlsx
+++ b/LeetCode分类顺序表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C599AE2C-7A55-490E-BA80-2A7C66230F2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E5A1FC-4448-4263-8F66-6477698C71EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{630A98E0-9379-4C9E-AD43-DF22226C02E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{630A98E0-9379-4C9E-AD43-DF22226C02E5}"/>
   </bookViews>
   <sheets>
     <sheet name="基础Ⅰ" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="进阶Ⅱ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="425">
   <si>
     <t>题目链接</t>
   </si>
@@ -1531,6 +1530,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1539,12 +1544,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1926,20 +1925,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
       <c r="M1" s="19" t="s">
         <v>367</v>
       </c>
@@ -1949,16 +1948,16 @@
       <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -1996,27 +1995,27 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="G3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="M3" s="14" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -2550,13 +2549,13 @@
       <c r="K17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -2823,13 +2822,13 @@
       <c r="K24" s="4">
         <v>1</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="16"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -3270,13 +3269,13 @@
       <c r="E36" s="4">
         <v>1</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="18"/>
       <c r="M36" s="2">
         <v>306</v>
       </c>
@@ -3366,13 +3365,13 @@
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
       <c r="G39" s="2">
         <v>68</v>
       </c>
@@ -3447,13 +3446,13 @@
         <v>47</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18"/>
       <c r="M41" s="2">
         <v>386</v>
       </c>
@@ -3541,13 +3540,13 @@
       <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
       <c r="G44" s="2">
         <v>3</v>
       </c>
@@ -3674,13 +3673,13 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="16"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
@@ -3709,13 +3708,13 @@
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
       <c r="G50" s="2">
         <v>266</v>
       </c>
@@ -3908,13 +3907,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="4"/>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="18"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
@@ -3941,13 +3940,13 @@
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
       <c r="G60" s="2">
         <v>22</v>
       </c>
@@ -4044,13 +4043,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="4"/>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="18"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
@@ -4297,6 +4296,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="G64:K64"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="G41:K41"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -4304,18 +4315,6 @@
     <mergeCell ref="M17:Q17"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="G64:K64"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G58:K58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E4:E38 E51:E59 E61:E80 E40:E43 E45:E49">
@@ -4858,26 +4857,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="F1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="L1" s="14" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="L1" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -4924,26 +4923,26 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="F3" s="14" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="F3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="L3" s="14" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="L3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -5131,13 +5130,13 @@
       <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -5384,13 +5383,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
       <c r="L15" s="2">
         <v>129</v>
       </c>
@@ -5484,12 +5483,12 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
       <c r="F18" s="2">
         <v>313</v>
       </c>
@@ -5503,13 +5502,13 @@
         <v>47</v>
       </c>
       <c r="J18" s="4"/>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -5722,13 +5721,13 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="16"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -5800,13 +5799,13 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L30" s="2">
@@ -6007,13 +6006,13 @@
       </c>
     </row>
     <row r="42" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L42" s="14" t="s">
+      <c r="L42" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="16"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" spans="12:16" x14ac:dyDescent="0.2">
       <c r="L43" s="2">
@@ -6222,6 +6221,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F15:J15"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="L8:P8"/>
@@ -6230,11 +6234,6 @@
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="F15:J15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D4:D17 D19:D27">
@@ -6472,8 +6471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5BA1DE-400E-4A3E-A02A-9D0FF532988D}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -6499,27 +6498,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -7139,7 +7138,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>93</v>
       </c>
@@ -7153,13 +7152,13 @@
         <v>47</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
       <c r="M18" s="8">
         <v>97</v>
       </c>
@@ -7387,7 +7386,9 @@
       <c r="C26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="M26" s="8">
         <v>276</v>
@@ -7412,7 +7413,9 @@
         <v>3</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
       <c r="M27" s="8">
         <v>91</v>
       </c>
@@ -7435,7 +7438,9 @@
       <c r="C28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="M28" s="8">
         <v>10</v>
@@ -7459,7 +7464,9 @@
       <c r="C29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="M29" s="8">
         <v>44</v>
@@ -7484,7 +7491,9 @@
         <v>3</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
@@ -7497,7 +7506,9 @@
         <v>3</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
@@ -7510,7 +7521,9 @@
         <v>3</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
@@ -7523,7 +7536,9 @@
         <v>3</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7750,7 +7765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ED8E16-5D71-44BF-8285-0E6556EC9D83}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
